--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="585">
   <si>
     <t>Property</t>
   </si>
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -618,7 +618,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1628,6 +1628,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -2061,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2094,7 +2225,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -11591,17 +11722,15 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>504</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11638,17 +11767,19 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>231</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11660,19 +11791,19 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11680,20 +11811,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11705,16 +11834,16 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>505</v>
+        <v>234</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>235</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>163</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11752,43 +11881,43 @@
         <v>77</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>503</v>
+        <v>237</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>508</v>
+        <v>232</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
@@ -11796,7 +11925,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11816,19 +11945,23 @@
         <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11876,7 +12009,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>231</v>
+        <v>511</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11888,19 +12021,19 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>232</v>
+        <v>512</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>77</v>
@@ -11908,45 +12041,47 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>234</v>
+        <v>515</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11966,55 +12101,55 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>237</v>
+        <v>521</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>232</v>
+        <v>522</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -12022,11 +12157,9 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12035,7 +12168,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12044,19 +12177,21 @@
         <v>77</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12104,31 +12239,31 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>237</v>
+        <v>528</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>77</v>
@@ -12136,7 +12271,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12159,16 +12294,18 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>519</v>
+        <v>100</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12216,7 +12353,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12362,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>77</v>
+        <v>536</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12234,13 +12371,13 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>77</v>
@@ -12248,7 +12385,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12271,16 +12408,20 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12304,13 +12445,11 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>77</v>
+        <v>543</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12328,7 +12467,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12346,13 +12485,13 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>77</v>
@@ -12360,11 +12499,9 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12385,16 +12522,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12432,19 +12569,17 @@
         <v>77</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB91" s="2"/>
       <c r="AC91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12453,22 +12588,22 @@
         <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>533</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
@@ -12476,9 +12611,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12487,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12499,16 +12636,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12558,13 +12695,13 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
@@ -12576,15 +12713,809 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>
